--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by civil engineering quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by civil engineering quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6799" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7004" uniqueCount="102">
   <si>
     <t>Construction price indices: Germany, reference month per
 quarter, indices including/excluding turnover tax, civil
@@ -308,13 +308,19 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>______________</t>
   </si>
   <si>
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:24:20</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:02:02</t>
   </si>
 </sst>
 </file>
@@ -50300,19 +50306,783 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1031">
-      <c r="A1031" t="s" s="11">
+    <row r="1031" ht="33.75" customHeight="true">
+      <c r="A1031" t="s" s="14">
         <v>97</v>
       </c>
     </row>
-    <row r="1032">
-      <c r="A1032" t="s" s="11">
+    <row r="1032" ht="33.75" customHeight="true">
+      <c r="A1032" t="s" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B1033" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1033" t="n" s="10">
+        <v>133.9</v>
+      </c>
+      <c r="D1033" t="n" s="10">
+        <v>136.8</v>
+      </c>
+      <c r="E1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="F1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="G1033" t="n" s="10">
+        <v>141.3</v>
+      </c>
+      <c r="H1033" t="n" s="10">
+        <v>133.5</v>
+      </c>
+      <c r="I1033" t="n" s="10">
+        <v>140.3</v>
+      </c>
+      <c r="J1033" t="n" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="K1033" t="n" s="10">
+        <v>131.9</v>
+      </c>
+      <c r="L1033" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="M1033" t="n" s="10">
+        <v>139.8</v>
+      </c>
+      <c r="N1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="P1033" t="n" s="10">
+        <v>147.4</v>
+      </c>
+      <c r="Q1033" t="n" s="10">
+        <v>129.0</v>
+      </c>
+      <c r="R1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="S1033" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="T1033" t="s" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B1034" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1034" t="s" s="10">
         <v>98</v>
       </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="s" s="12">
+      <c r="D1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1034" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1034" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B1035" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1035" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1035" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1036" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1036" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1036" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1037" ht="33.75" customHeight="true">
+      <c r="A1037" t="s" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B1038" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1038" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="D1038" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="E1038" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="F1038" t="n" s="10">
+        <v>138.1</v>
+      </c>
+      <c r="G1038" t="n" s="10">
+        <v>141.2</v>
+      </c>
+      <c r="H1038" t="n" s="10">
+        <v>136.5</v>
+      </c>
+      <c r="I1038" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="J1038" t="n" s="10">
+        <v>131.3</v>
+      </c>
+      <c r="K1038" t="n" s="10">
+        <v>132.3</v>
+      </c>
+      <c r="L1038" t="n" s="10">
+        <v>131.1</v>
+      </c>
+      <c r="M1038" t="n" s="10">
+        <v>140.3</v>
+      </c>
+      <c r="N1038" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="O1038" t="n" s="10">
+        <v>140.7</v>
+      </c>
+      <c r="P1038" t="n" s="10">
+        <v>148.1</v>
+      </c>
+      <c r="Q1038" t="n" s="10">
+        <v>129.1</v>
+      </c>
+      <c r="R1038" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="S1038" t="n" s="10">
+        <v>145.6</v>
+      </c>
+      <c r="T1038" t="n" s="10">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B1039" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1039" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1039" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B1040" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1040" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1040" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1041" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1041" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1041" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1042" ht="33.75" customHeight="true">
+      <c r="A1042" t="s" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B1043" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1043" t="n" s="10">
+        <v>135.9</v>
+      </c>
+      <c r="D1043" t="n" s="10">
+        <v>133.4</v>
+      </c>
+      <c r="E1043" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="F1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="G1043" t="n" s="10">
+        <v>139.9</v>
+      </c>
+      <c r="H1043" t="n" s="10">
+        <v>134.3</v>
+      </c>
+      <c r="I1043" t="n" s="10">
+        <v>138.6</v>
+      </c>
+      <c r="J1043" t="n" s="10">
+        <v>128.3</v>
+      </c>
+      <c r="K1043" t="n" s="10">
+        <v>131.1</v>
+      </c>
+      <c r="L1043" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="M1043" t="n" s="10">
+        <v>134.8</v>
+      </c>
+      <c r="N1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O1043" t="n" s="10">
+        <v>139.4</v>
+      </c>
+      <c r="P1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="R1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="S1043" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="T1043" t="s" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B1044" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1044" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1044" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B1045" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1045" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1045" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1046" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="E1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="G1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="H1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="J1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="K1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="L1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="M1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="N1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="O1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="P1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="Q1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="R1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="S1046" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="T1046" t="s" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s" s="11">
         <v>99</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s" s="12">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -50578,11 +51348,15 @@
     <mergeCell ref="A1016:T1016"/>
     <mergeCell ref="A1021:T1021"/>
     <mergeCell ref="A1026:T1026"/>
+    <mergeCell ref="A1031:T1031"/>
+    <mergeCell ref="A1032:T1032"/>
+    <mergeCell ref="A1037:T1037"/>
+    <mergeCell ref="A1042:T1042"/>
     <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:24:26&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:02:07&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by civil engineering quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by civil engineering quarters.xlsx
@@ -320,7 +320,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:02:02</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:16:11</t>
   </si>
 </sst>
 </file>
@@ -51356,7 +51356,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:02:07&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:16:17&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>